--- a/taller-05-seguridad-stride/entrega/tabla-stride-cliente.xlsx
+++ b/taller-05-seguridad-stride/entrega/tabla-stride-cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marim\ARQUITECTURA EMPRESARIAL\STRIDE\AREM-Taller_5_Seguridad\taller-05-seguridad-stride\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C66547-CCA7-468F-9D29-18A2E5269E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB994DA-791F-4EB7-9EFD-9EC75F2FFF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E83325C4-6A43-4F5A-B107-F840AD3951EC}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +172,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -302,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF84FBA6-B6A3-44C7-955C-833B46BE3BD0}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
